--- a/Team-Data/2007-08/4-13-2007-08.xlsx
+++ b/Team-Data/2007-08/4-13-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-1.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
@@ -756,7 +823,7 @@
         <v>19</v>
       </c>
       <c r="AH2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI2" t="n">
         <v>21</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-13-2007-08</t>
+          <t>2008-04-13</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>10.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -950,7 +1017,7 @@
         <v>4</v>
       </c>
       <c r="AL3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM3" t="n">
         <v>12</v>
@@ -998,7 +1065,7 @@
         <v>8</v>
       </c>
       <c r="BB3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-13-2007-08</t>
+          <t>2008-04-13</t>
         </is>
       </c>
     </row>
@@ -1108,28 +1175,28 @@
         <v>-4.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE4" t="n">
         <v>22</v>
       </c>
       <c r="AF4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ4" t="n">
         <v>22</v>
       </c>
       <c r="AK4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
         <v>16</v>
@@ -1141,7 +1208,7 @@
         <v>12</v>
       </c>
       <c r="AO4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP4" t="n">
         <v>11</v>
@@ -1162,7 +1229,7 @@
         <v>18</v>
       </c>
       <c r="AV4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW4" t="n">
         <v>12</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-13-2007-08</t>
+          <t>2008-04-13</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" t="n">
         <v>31</v>
       </c>
       <c r="F5" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" t="n">
-        <v>0.388</v>
+        <v>0.392</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
@@ -1233,7 +1300,7 @@
         <v>83.59999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.431</v>
+        <v>0.432</v>
       </c>
       <c r="L5" t="n">
         <v>5.8</v>
@@ -1245,10 +1312,10 @@
         <v>0.365</v>
       </c>
       <c r="O5" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P5" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="Q5" t="n">
         <v>0.754</v>
@@ -1260,7 +1327,7 @@
         <v>30.2</v>
       </c>
       <c r="T5" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U5" t="n">
         <v>21.8</v>
@@ -1278,19 +1345,19 @@
         <v>5.7</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AA5" t="n">
         <v>21.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.5</v>
+        <v>96.7</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.5</v>
+        <v>-3.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
@@ -1320,7 +1387,7 @@
         <v>24</v>
       </c>
       <c r="AN5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO5" t="n">
         <v>15</v>
@@ -1332,19 +1399,19 @@
         <v>17</v>
       </c>
       <c r="AR5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS5" t="n">
         <v>18</v>
       </c>
       <c r="AT5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU5" t="n">
         <v>13</v>
       </c>
       <c r="AV5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW5" t="n">
         <v>10</v>
@@ -1362,7 +1429,7 @@
         <v>12</v>
       </c>
       <c r="BB5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BC5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-13-2007-08</t>
+          <t>2008-04-13</t>
         </is>
       </c>
     </row>
@@ -1394,34 +1461,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="n">
         <v>36</v>
       </c>
       <c r="G6" t="n">
-        <v>0.55</v>
+        <v>0.544</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
       </c>
       <c r="I6" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J6" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.439</v>
+        <v>0.44</v>
       </c>
       <c r="L6" t="n">
         <v>6.9</v>
       </c>
       <c r="M6" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="N6" t="n">
         <v>0.36</v>
@@ -1430,19 +1497,19 @@
         <v>18</v>
       </c>
       <c r="P6" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
         <v>0.718</v>
       </c>
       <c r="R6" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="S6" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="T6" t="n">
-        <v>44.5</v>
+        <v>44.4</v>
       </c>
       <c r="U6" t="n">
         <v>20.1</v>
@@ -1457,7 +1524,7 @@
         <v>5.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z6" t="n">
         <v>21</v>
@@ -1466,13 +1533,13 @@
         <v>20.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>96.7</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1487,7 +1554,7 @@
         <v>4</v>
       </c>
       <c r="AI6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ6" t="n">
         <v>14</v>
@@ -1508,7 +1575,7 @@
         <v>21</v>
       </c>
       <c r="AP6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ6" t="n">
         <v>28</v>
@@ -1517,10 +1584,10 @@
         <v>1</v>
       </c>
       <c r="AS6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU6" t="n">
         <v>24</v>
@@ -1535,16 +1602,16 @@
         <v>7</v>
       </c>
       <c r="AY6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ6" t="n">
         <v>16</v>
       </c>
       <c r="BA6" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BB6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC6" t="n">
         <v>16</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-13-2007-08</t>
+          <t>2008-04-13</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" t="n">
         <v>50</v>
       </c>
       <c r="F7" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" t="n">
-        <v>0.617</v>
+        <v>0.625</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
@@ -1594,16 +1661,16 @@
         <v>36.9</v>
       </c>
       <c r="J7" t="n">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="K7" t="n">
-        <v>0.465</v>
+        <v>0.466</v>
       </c>
       <c r="L7" t="n">
         <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="N7" t="n">
         <v>0.352</v>
@@ -1612,7 +1679,7 @@
         <v>20.6</v>
       </c>
       <c r="P7" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="Q7" t="n">
         <v>0.8129999999999999</v>
@@ -1624,19 +1691,19 @@
         <v>32.2</v>
       </c>
       <c r="T7" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U7" t="n">
         <v>21</v>
       </c>
       <c r="V7" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="W7" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="X7" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y7" t="n">
         <v>4.3</v>
@@ -1648,10 +1715,10 @@
         <v>21.2</v>
       </c>
       <c r="AB7" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -1660,10 +1727,10 @@
         <v>9</v>
       </c>
       <c r="AF7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH7" t="n">
         <v>28</v>
@@ -1675,10 +1742,10 @@
         <v>24</v>
       </c>
       <c r="AK7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM7" t="n">
         <v>19</v>
@@ -1693,7 +1760,7 @@
         <v>14</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR7" t="n">
         <v>21</v>
@@ -1714,10 +1781,10 @@
         <v>29</v>
       </c>
       <c r="AX7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ7" t="n">
         <v>23</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-13-2007-08</t>
+          <t>2008-04-13</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F8" t="n">
         <v>32</v>
       </c>
       <c r="G8" t="n">
-        <v>0.605</v>
+        <v>0.6</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
@@ -1791,16 +1858,16 @@
         <v>0.356</v>
       </c>
       <c r="O8" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="P8" t="n">
         <v>30.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.75</v>
+        <v>0.751</v>
       </c>
       <c r="R8" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S8" t="n">
         <v>32.7</v>
@@ -1818,22 +1885,22 @@
         <v>9.199999999999999</v>
       </c>
       <c r="X8" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Y8" t="n">
         <v>4.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="AB8" t="n">
         <v>110.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
@@ -1848,7 +1915,7 @@
         <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI8" t="n">
         <v>3</v>
@@ -1866,7 +1933,7 @@
         <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1878,10 +1945,10 @@
         <v>19</v>
       </c>
       <c r="AR8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT8" t="n">
         <v>5</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-13-2007-08</t>
+          <t>2008-04-13</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F9" t="n">
         <v>23</v>
       </c>
       <c r="G9" t="n">
-        <v>0.713</v>
+        <v>0.709</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
@@ -1964,19 +2031,19 @@
         <v>0.458</v>
       </c>
       <c r="L9" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>16.3</v>
       </c>
       <c r="N9" t="n">
-        <v>0.365</v>
+        <v>0.366</v>
       </c>
       <c r="O9" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="P9" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="Q9" t="n">
         <v>0.765</v>
@@ -1988,10 +2055,10 @@
         <v>29.5</v>
       </c>
       <c r="T9" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U9" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="V9" t="n">
         <v>11.6</v>
@@ -2009,16 +2076,16 @@
         <v>20.6</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB9" t="n">
-        <v>97.40000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="AC9" t="n">
         <v>7.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2042,16 +2109,16 @@
         <v>13</v>
       </c>
       <c r="AL9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM9" t="n">
         <v>22</v>
       </c>
       <c r="AN9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP9" t="n">
         <v>21</v>
@@ -2066,10 +2133,10 @@
         <v>25</v>
       </c>
       <c r="AT9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-13-2007-08</t>
+          <t>2008-04-13</t>
         </is>
       </c>
     </row>
@@ -2200,19 +2267,19 @@
         <v>2.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF10" t="n">
         <v>11</v>
       </c>
       <c r="AG10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2248,10 +2315,10 @@
         <v>15</v>
       </c>
       <c r="AT10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV10" t="n">
         <v>8</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-13-2007-08</t>
+          <t>2008-04-13</t>
         </is>
       </c>
     </row>
@@ -2304,61 +2371,61 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" t="n">
         <v>54</v>
       </c>
       <c r="F11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" t="n">
-        <v>0.675</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H11" t="n">
         <v>48.1</v>
       </c>
       <c r="I11" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J11" t="n">
-        <v>81.7</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.449</v>
+        <v>0.451</v>
       </c>
       <c r="L11" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="N11" t="n">
         <v>0.342</v>
       </c>
       <c r="O11" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="P11" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.725</v>
+        <v>0.724</v>
       </c>
       <c r="R11" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="S11" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T11" t="n">
-        <v>44.7</v>
+        <v>44.6</v>
       </c>
       <c r="U11" t="n">
         <v>21.4</v>
       </c>
       <c r="V11" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W11" t="n">
         <v>7.3</v>
@@ -2367,10 +2434,10 @@
         <v>5.2</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA11" t="n">
         <v>19.6</v>
@@ -2379,16 +2446,16 @@
         <v>96.8</v>
       </c>
       <c r="AC11" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="AE11" t="n">
         <v>5</v>
       </c>
       <c r="AF11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG11" t="n">
         <v>5</v>
@@ -2403,7 +2470,7 @@
         <v>15</v>
       </c>
       <c r="AK11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL11" t="n">
         <v>10</v>
@@ -2418,13 +2485,13 @@
         <v>28</v>
       </c>
       <c r="AP11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS11" t="n">
         <v>6</v>
@@ -2445,19 +2512,19 @@
         <v>8</v>
       </c>
       <c r="AY11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-13-2007-08</t>
+          <t>2008-04-13</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-1.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
         <v>20</v>
@@ -2603,7 +2670,7 @@
         <v>18</v>
       </c>
       <c r="AQ12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR12" t="n">
         <v>17</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-13-2007-08</t>
+          <t>2008-04-13</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-7</v>
       </c>
       <c r="AD13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2758,7 +2825,7 @@
         <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
@@ -2794,7 +2861,7 @@
         <v>17</v>
       </c>
       <c r="AT13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU13" t="n">
         <v>16</v>
@@ -2806,10 +2873,10 @@
         <v>19</v>
       </c>
       <c r="AX13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ13" t="n">
         <v>20</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-13-2007-08</t>
+          <t>2008-04-13</t>
         </is>
       </c>
     </row>
@@ -2850,19 +2917,19 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" t="n">
         <v>25</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I14" t="n">
         <v>39.6</v>
@@ -2880,22 +2947,22 @@
         <v>21.4</v>
       </c>
       <c r="N14" t="n">
-        <v>0.378</v>
+        <v>0.376</v>
       </c>
       <c r="O14" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="P14" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.768</v>
+        <v>0.767</v>
       </c>
       <c r="R14" t="n">
         <v>10.9</v>
       </c>
       <c r="S14" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="T14" t="n">
         <v>44.1</v>
@@ -2907,7 +2974,7 @@
         <v>14.1</v>
       </c>
       <c r="W14" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X14" t="n">
         <v>5.3</v>
@@ -2919,13 +2986,13 @@
         <v>20.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AB14" t="n">
         <v>108.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -2940,7 +3007,7 @@
         <v>3</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI14" t="n">
         <v>5</v>
@@ -2958,16 +3025,16 @@
         <v>6</v>
       </c>
       <c r="AN14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP14" t="n">
         <v>5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR14" t="n">
         <v>19</v>
@@ -2991,10 +3058,10 @@
         <v>5</v>
       </c>
       <c r="AY14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-13-2007-08</t>
+          <t>2008-04-13</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6</v>
       </c>
       <c r="AD15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3122,7 +3189,7 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI15" t="n">
         <v>11</v>
@@ -3131,7 +3198,7 @@
         <v>13</v>
       </c>
       <c r="AK15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL15" t="n">
         <v>7</v>
@@ -3155,7 +3222,7 @@
         <v>22</v>
       </c>
       <c r="AS15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT15" t="n">
         <v>18</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-13-2007-08</t>
+          <t>2008-04-13</t>
         </is>
       </c>
     </row>
@@ -3214,37 +3281,37 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E16" t="n">
         <v>14</v>
       </c>
       <c r="F16" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G16" t="n">
-        <v>0.175</v>
+        <v>0.177</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="J16" t="n">
-        <v>77</v>
+        <v>77.2</v>
       </c>
       <c r="K16" t="n">
         <v>0.444</v>
       </c>
       <c r="L16" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="M16" t="n">
         <v>16.4</v>
       </c>
       <c r="N16" t="n">
-        <v>0.357</v>
+        <v>0.355</v>
       </c>
       <c r="O16" t="n">
         <v>17.1</v>
@@ -3256,16 +3323,16 @@
         <v>0.726</v>
       </c>
       <c r="R16" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="S16" t="n">
         <v>28.6</v>
       </c>
       <c r="T16" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="U16" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="V16" t="n">
         <v>14.7</v>
@@ -3274,25 +3341,25 @@
         <v>7.2</v>
       </c>
       <c r="X16" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA16" t="n">
         <v>20.3</v>
       </c>
       <c r="AB16" t="n">
-        <v>91.3</v>
+        <v>91.5</v>
       </c>
       <c r="AC16" t="n">
         <v>-8.800000000000001</v>
       </c>
       <c r="AD16" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3322,7 +3389,7 @@
         <v>21</v>
       </c>
       <c r="AN16" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO16" t="n">
         <v>25</v>
@@ -3346,22 +3413,22 @@
         <v>25</v>
       </c>
       <c r="AV16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW16" t="n">
         <v>16</v>
       </c>
       <c r="AX16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ16" t="n">
         <v>10</v>
       </c>
       <c r="BA16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BB16" t="n">
         <v>30</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-13-2007-08</t>
+          <t>2008-04-13</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-6.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>24</v>
@@ -3486,7 +3553,7 @@
         <v>24</v>
       </c>
       <c r="AH17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI17" t="n">
         <v>17</v>
@@ -3516,7 +3583,7 @@
         <v>22</v>
       </c>
       <c r="AR17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS17" t="n">
         <v>29</v>
@@ -3528,7 +3595,7 @@
         <v>15</v>
       </c>
       <c r="AV17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW17" t="n">
         <v>21</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-13-2007-08</t>
+          <t>2008-04-13</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-6.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE18" t="n">
         <v>28</v>
@@ -3704,13 +3771,13 @@
         <v>24</v>
       </c>
       <c r="AT18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU18" t="n">
         <v>26</v>
       </c>
       <c r="AV18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW18" t="n">
         <v>13</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-13-2007-08</t>
+          <t>2008-04-13</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-5.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="n">
         <v>21</v>
@@ -3850,7 +3917,7 @@
         <v>21</v>
       </c>
       <c r="AH19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI19" t="n">
         <v>28</v>
@@ -3895,7 +3962,7 @@
         <v>25</v>
       </c>
       <c r="AW19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX19" t="n">
         <v>16</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-13-2007-08</t>
+          <t>2008-04-13</t>
         </is>
       </c>
     </row>
@@ -4020,19 +4087,19 @@
         <v>5.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF20" t="n">
         <v>3</v>
       </c>
       <c r="AG20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI20" t="n">
         <v>6</v>
@@ -4041,7 +4108,7 @@
         <v>8</v>
       </c>
       <c r="AK20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL20" t="n">
         <v>6</v>
@@ -4083,7 +4150,7 @@
         <v>28</v>
       </c>
       <c r="AY20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ20" t="n">
         <v>1</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-13-2007-08</t>
+          <t>2008-04-13</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-6.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE21" t="n">
         <v>25</v>
@@ -4241,7 +4308,7 @@
         <v>13</v>
       </c>
       <c r="AQ21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR21" t="n">
         <v>6</v>
@@ -4259,7 +4326,7 @@
         <v>16</v>
       </c>
       <c r="AW21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4274,7 +4341,7 @@
         <v>20</v>
       </c>
       <c r="BB21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC21" t="n">
         <v>25</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-13-2007-08</t>
+          <t>2008-04-13</t>
         </is>
       </c>
     </row>
@@ -4306,25 +4373,25 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E22" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22" t="n">
         <v>30</v>
       </c>
       <c r="G22" t="n">
-        <v>0.625</v>
+        <v>0.62</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="J22" t="n">
-        <v>78.5</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K22" t="n">
         <v>0.473</v>
@@ -4333,7 +4400,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="M22" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="N22" t="n">
         <v>0.385</v>
@@ -4357,13 +4424,13 @@
         <v>42</v>
       </c>
       <c r="U22" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V22" t="n">
         <v>14.4</v>
       </c>
       <c r="W22" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X22" t="n">
         <v>4.1</v>
@@ -4381,28 +4448,28 @@
         <v>104.3</v>
       </c>
       <c r="AC22" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AD22" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="AE22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF22" t="n">
         <v>9</v>
       </c>
       <c r="AG22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH22" t="n">
         <v>18</v>
       </c>
       <c r="AI22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK22" t="n">
         <v>5</v>
@@ -4429,7 +4496,7 @@
         <v>28</v>
       </c>
       <c r="AS22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT22" t="n">
         <v>12</v>
@@ -4438,19 +4505,19 @@
         <v>22</v>
       </c>
       <c r="AV22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX22" t="n">
         <v>25</v>
       </c>
       <c r="AY22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA22" t="n">
         <v>2</v>
@@ -4459,7 +4526,7 @@
         <v>6</v>
       </c>
       <c r="BC22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-13-2007-08</t>
+          <t>2008-04-13</t>
         </is>
       </c>
     </row>
@@ -4566,22 +4633,22 @@
         <v>0.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>15</v>
       </c>
       <c r="AF23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH23" t="n">
         <v>22</v>
       </c>
       <c r="AI23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ23" t="n">
         <v>17</v>
@@ -4620,13 +4687,13 @@
         <v>23</v>
       </c>
       <c r="AV23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW23" t="n">
         <v>4</v>
       </c>
       <c r="AX23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY23" t="n">
         <v>20</v>
@@ -4638,7 +4705,7 @@
         <v>18</v>
       </c>
       <c r="BB23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC23" t="n">
         <v>14</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-13-2007-08</t>
+          <t>2008-04-13</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>5</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE24" t="n">
         <v>7</v>
@@ -4760,7 +4827,7 @@
         <v>7</v>
       </c>
       <c r="AH24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
@@ -4778,7 +4845,7 @@
         <v>4</v>
       </c>
       <c r="AN24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO24" t="n">
         <v>14</v>
@@ -4823,7 +4890,7 @@
         <v>3</v>
       </c>
       <c r="BC24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-13-2007-08</t>
+          <t>2008-04-13</t>
         </is>
       </c>
     </row>
@@ -4930,22 +4997,22 @@
         <v>-1.2</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE25" t="n">
         <v>15</v>
       </c>
       <c r="AF25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH25" t="n">
         <v>1</v>
       </c>
       <c r="AI25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ25" t="n">
         <v>23</v>
@@ -5002,7 +5069,7 @@
         <v>23</v>
       </c>
       <c r="BB25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC25" t="n">
         <v>17</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-13-2007-08</t>
+          <t>2008-04-13</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2</v>
       </c>
       <c r="AD26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5124,7 +5191,7 @@
         <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI26" t="n">
         <v>14</v>
@@ -5160,13 +5227,13 @@
         <v>19</v>
       </c>
       <c r="AT26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU26" t="n">
         <v>28</v>
       </c>
       <c r="AV26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW26" t="n">
         <v>7</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-13-2007-08</t>
+          <t>2008-04-13</t>
         </is>
       </c>
     </row>
@@ -5216,28 +5283,28 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E27" t="n">
         <v>54</v>
       </c>
       <c r="F27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G27" t="n">
-        <v>0.675</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="H27" t="n">
         <v>48.1</v>
       </c>
       <c r="I27" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="J27" t="n">
         <v>78.5</v>
       </c>
       <c r="K27" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L27" t="n">
         <v>7.3</v>
@@ -5246,16 +5313,16 @@
         <v>19.7</v>
       </c>
       <c r="N27" t="n">
-        <v>0.368</v>
+        <v>0.369</v>
       </c>
       <c r="O27" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P27" t="n">
         <v>21.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.761</v>
+        <v>0.763</v>
       </c>
       <c r="R27" t="n">
         <v>9.5</v>
@@ -5264,19 +5331,19 @@
         <v>31.9</v>
       </c>
       <c r="T27" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U27" t="n">
         <v>20.9</v>
       </c>
       <c r="V27" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="W27" t="n">
         <v>6.3</v>
       </c>
       <c r="X27" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y27" t="n">
         <v>4.4</v>
@@ -5288,19 +5355,19 @@
         <v>19.9</v>
       </c>
       <c r="AB27" t="n">
-        <v>95.09999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="AC27" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="AE27" t="n">
         <v>5</v>
       </c>
       <c r="AF27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG27" t="n">
         <v>5</v>
@@ -5312,13 +5379,13 @@
         <v>26</v>
       </c>
       <c r="AJ27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM27" t="n">
         <v>9</v>
@@ -5351,7 +5418,7 @@
         <v>4</v>
       </c>
       <c r="AW27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX27" t="n">
         <v>24</v>
@@ -5366,7 +5433,7 @@
         <v>24</v>
       </c>
       <c r="BB27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC27" t="n">
         <v>9</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-13-2007-08</t>
+          <t>2008-04-13</t>
         </is>
       </c>
     </row>
@@ -5398,52 +5465,52 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F28" t="n">
         <v>62</v>
       </c>
       <c r="G28" t="n">
-        <v>0.235</v>
+        <v>0.225</v>
       </c>
       <c r="H28" t="n">
         <v>48.4</v>
       </c>
       <c r="I28" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="J28" t="n">
-        <v>85.7</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K28" t="n">
         <v>0.443</v>
       </c>
       <c r="L28" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="M28" t="n">
         <v>11.5</v>
       </c>
       <c r="N28" t="n">
-        <v>0.332</v>
+        <v>0.334</v>
       </c>
       <c r="O28" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P28" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="R28" t="n">
         <v>11.8</v>
       </c>
       <c r="S28" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T28" t="n">
         <v>44.5</v>
@@ -5452,7 +5519,7 @@
         <v>21.2</v>
       </c>
       <c r="V28" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="W28" t="n">
         <v>6.5</v>
@@ -5464,16 +5531,16 @@
         <v>5.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB28" t="n">
         <v>97.2</v>
       </c>
       <c r="AC28" t="n">
-        <v>-8.9</v>
+        <v>-9.1</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
@@ -5488,7 +5555,7 @@
         <v>29</v>
       </c>
       <c r="AH28" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI28" t="n">
         <v>8</v>
@@ -5503,7 +5570,7 @@
         <v>29</v>
       </c>
       <c r="AM28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN28" t="n">
         <v>28</v>
@@ -5524,19 +5591,19 @@
         <v>4</v>
       </c>
       <c r="AT28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW28" t="n">
         <v>23</v>
       </c>
       <c r="AX28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY28" t="n">
         <v>26</v>
@@ -5545,7 +5612,7 @@
         <v>12</v>
       </c>
       <c r="BA28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB28" t="n">
         <v>17</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-13-2007-08</t>
+          <t>2008-04-13</t>
         </is>
       </c>
     </row>
@@ -5580,22 +5647,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E29" t="n">
         <v>40</v>
       </c>
       <c r="F29" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5</v>
+        <v>0.506</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="J29" t="n">
         <v>82</v>
@@ -5607,16 +5674,16 @@
         <v>7</v>
       </c>
       <c r="M29" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="N29" t="n">
-        <v>0.392</v>
+        <v>0.394</v>
       </c>
       <c r="O29" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P29" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="Q29" t="n">
         <v>0.8129999999999999</v>
@@ -5625,10 +5692,10 @@
         <v>9.6</v>
       </c>
       <c r="S29" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T29" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="U29" t="n">
         <v>23.8</v>
@@ -5640,25 +5707,25 @@
         <v>6.9</v>
       </c>
       <c r="X29" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y29" t="n">
         <v>4</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA29" t="n">
         <v>18.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>100.3</v>
+        <v>100.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AD29" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="AE29" t="n">
         <v>15</v>
@@ -5682,13 +5749,13 @@
         <v>7</v>
       </c>
       <c r="AL29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM29" t="n">
         <v>14</v>
       </c>
       <c r="AN29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO29" t="n">
         <v>26</v>
@@ -5697,7 +5764,7 @@
         <v>30</v>
       </c>
       <c r="AQ29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR29" t="n">
         <v>26</v>
@@ -5706,7 +5773,7 @@
         <v>14</v>
       </c>
       <c r="AT29" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AU29" t="n">
         <v>5</v>
@@ -5721,16 +5788,16 @@
         <v>27</v>
       </c>
       <c r="AY29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA29" t="n">
         <v>29</v>
       </c>
       <c r="BB29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC29" t="n">
         <v>12</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-13-2007-08</t>
+          <t>2008-04-13</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>7.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
         <v>7</v>
@@ -5870,7 +5937,7 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5900,7 +5967,7 @@
         <v>3</v>
       </c>
       <c r="AX30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY30" t="n">
         <v>24</v>
@@ -5915,7 +5982,7 @@
         <v>5</v>
       </c>
       <c r="BC30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-13-2007-08</t>
+          <t>2008-04-13</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-0.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6064,7 +6131,7 @@
         <v>4</v>
       </c>
       <c r="AR31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS31" t="n">
         <v>27</v>
@@ -6088,10 +6155,10 @@
         <v>10</v>
       </c>
       <c r="AZ31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB31" t="n">
         <v>14</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-13-2007-08</t>
+          <t>2008-04-13</t>
         </is>
       </c>
     </row>
